--- a/Exercise3/evaluation.xlsx
+++ b/Exercise3/evaluation.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
-  <si>
-    <t>Exercise 3 (gamma_c = 7 &amp;&amp; gamma_p = 33)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+  <si>
+    <t>Exercise 3 (gamma_c = 7 &amp; gamma_p = 33)</t>
   </si>
   <si>
     <t>D</t>
@@ -56,13 +56,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
-    <numFmt formatCode="0.00%" numFmtId="166"/>
-    <numFmt formatCode="0%" numFmtId="167"/>
+    <numFmt formatCode="0.00%" numFmtId="165"/>
+    <numFmt formatCode="0%" numFmtId="166"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -93,6 +92,14 @@
       <color rgb="FF000000"/>
       <sz val="14"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
@@ -110,6 +117,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
@@ -134,12 +148,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="167">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -148,15 +162,55 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="19">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="19">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -177,15 +231,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A16" activeCellId="0" pane="topLeft" sqref="A16"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.7295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.7295918367347"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="18.75" outlineLevel="0" r="1" s="1">
@@ -193,310 +249,329 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <f aca="false">348*252</f>
         <v>87696</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" s="0" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="3">
+      <c r="A3" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>23248</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="4" t="n">
         <f aca="false">$I$2-C3</f>
         <v>64448</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="5" t="n">
         <f aca="false">C3/(C3+D3)</f>
         <v>0.265097609925196</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>18370</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="4" t="n">
         <f aca="false">$I$2-C4</f>
         <v>69326</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="5" t="n">
         <f aca="false">C4/(C4+D4)</f>
         <v>0.209473636197774</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <v>16468</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="4" t="n">
         <f aca="false">$I$2-C5</f>
         <v>71228</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="5" t="n">
         <f aca="false">C5/(C5+D5)</f>
         <v>0.18778507571611</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <v>15678</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="4" t="n">
         <f aca="false">$I$2-C6</f>
         <v>72018</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="5" t="n">
         <f aca="false">C6/(C6+D6)</f>
         <v>0.178776683087028</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" s="0" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="7">
+      <c r="A7" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <v>15661</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="4" t="n">
         <f aca="false">$I$2-C7</f>
         <v>72035</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="5" t="n">
         <f aca="false">C7/(C7+D7)</f>
         <v>0.178582831600073</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B8" s="0" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="8">
+      <c r="A8" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="2" t="n">
         <v>16009</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="4" t="n">
         <f aca="false">$I$2-C8</f>
         <v>71687</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="5" t="n">
         <f aca="false">C8/(C8+D8)</f>
         <v>0.182551085568327</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="9">
+      <c r="A9" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>16643</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="4" t="n">
         <f aca="false">$I$2-C9</f>
         <v>71053</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="5" t="n">
         <f aca="false">C9/(C9+D9)</f>
         <v>0.189780605728882</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="10">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="2" t="n">
         <v>15663</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="4" t="n">
         <f aca="false">$I$2-C14</f>
         <v>72033</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="5" t="n">
         <f aca="false">C14/(C14+D14)</f>
         <v>0.178605637657362</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>15606</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <f aca="false">$I$2-C15</f>
+        <v>72090</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <f aca="false">C15/(C15+D15)</f>
+        <v>0.177955665024631</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="16">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>15496</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <f aca="false">$I$2-C15</f>
+      <c r="D16" s="4" t="n">
+        <f aca="false">$I$2-C16</f>
         <v>72200</v>
       </c>
-      <c r="E15" s="3" t="n">
-        <f aca="false">C15/(C15+D15)</f>
+      <c r="E16" s="5" t="n">
+        <f aca="false">C16/(C16+D16)</f>
         <v>0.176701331873746</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="17">
+      <c r="A17" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B17" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C17" s="9" t="n">
         <v>15324</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <f aca="false">$I$2-C16</f>
+      <c r="D17" s="10" t="n">
+        <f aca="false">$I$2-C17</f>
         <v>72372</v>
       </c>
-      <c r="E16" s="3" t="n">
-        <f aca="false">C16/(C16+D16)</f>
+      <c r="E17" s="11" t="n">
+        <f aca="false">C17/(C17+D17)</f>
         <v>0.174740010946908</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="18.75" outlineLevel="0" r="18" s="1">
-      <c r="A18" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="18">
+      <c r="A18" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>15358</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">$I$2-C18</f>
+        <v>72338</v>
+      </c>
+      <c r="E18" s="13" t="n">
+        <f aca="false">C18/(C18+D18)</f>
+        <v>0.175127713920817</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="19">
+      <c r="A19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>15616</v>
+      </c>
+      <c r="D19" s="12" t="n">
+        <f aca="false">$I$2-C19</f>
+        <v>72080</v>
+      </c>
+      <c r="E19" s="13" t="n">
+        <f aca="false">C19/(C19+D19)</f>
+        <v>0.178069695311075</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="18.75" outlineLevel="0" r="21" s="1">
+      <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+      <c r="A22" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B22" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>27078</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>60618</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <f aca="false">C20/(C20+D20)</f>
-        <v>0.308771209633279</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>20266</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>67430</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <f aca="false">C21/(C21+D21)</f>
-        <v>0.231093778507572</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>17140</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>70556</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <f aca="false">C22/(C22+D22)</f>
-        <v>0.195447910965152</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
@@ -504,17 +579,17 @@
         <v>15</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>15618</v>
+        <v>27078</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>72078</v>
-      </c>
-      <c r="E23" s="3" t="n">
+        <v>60618</v>
+      </c>
+      <c r="E23" s="14" t="n">
         <f aca="false">C23/(C23+D23)</f>
-        <v>0.178092501368363</v>
+        <v>0.308771209633279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
@@ -522,17 +597,17 @@
         <v>15</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>14986</v>
+        <v>20266</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>72710</v>
-      </c>
-      <c r="E24" s="3" t="n">
+        <v>67430</v>
+      </c>
+      <c r="E24" s="14" t="n">
         <f aca="false">C24/(C24+D24)</f>
-        <v>0.170885787265098</v>
+        <v>0.231093778507572</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
@@ -540,17 +615,17 @@
         <v>15</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>14688</v>
+        <v>17140</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>73008</v>
-      </c>
-      <c r="E25" s="3" t="n">
+        <v>70556</v>
+      </c>
+      <c r="E25" s="14" t="n">
         <f aca="false">C25/(C25+D25)</f>
-        <v>0.167487684729064</v>
+        <v>0.195447910965152</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
@@ -558,21 +633,75 @@
         <v>15</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="n">
+        <v>15618</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>72078</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <f aca="false">C26/(C26+D26)</f>
+        <v>0.178092501368363</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+      <c r="A27" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>14986</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>72710</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <f aca="false">C27/(C27+D27)</f>
+        <v>0.170885787265098</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
+      <c r="A28" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>14688</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>73008</v>
+      </c>
+      <c r="E28" s="14" t="n">
+        <f aca="false">C28/(C28+D28)</f>
+        <v>0.167487684729064</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+      <c r="A29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>14603</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>73093</v>
       </c>
-      <c r="E26" s="3" t="n">
-        <f aca="false">C26/(C26+D26)</f>
+      <c r="E29" s="14" t="n">
+        <f aca="false">C29/(C29+D29)</f>
         <v>0.166518427294289</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+      <c r="A30" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -595,7 +724,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -621,7 +750,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
